--- a/tbl打包工具/excel/mapJumpConfig.xlsx
+++ b/tbl打包工具/excel/mapJumpConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="19200" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>id_str</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,18 +101,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>右扶风-汉阳郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>斜谷-汉阳郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斜谷-汉中郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>子午谷-汉中郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,6 +158,66 @@
   </si>
   <si>
     <t>九江郡-广陵郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白水关-汉阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉中郡-汉阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箕谷-汉阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永昌郡-交趾郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牂牁郡-武陵郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扞关-南郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散关-汉阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜谷-箕谷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉中郡-南郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代郡-雁门郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涿郡-中山国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广阳郡-河间国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郁林郡-零陵郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南海郡-桂阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南阳郡-颍川郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,12 +242,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -212,12 +270,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -532,9 +596,9 @@
     <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
@@ -565,231 +629,287 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>101</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>26</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>35</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="H2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>102</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>32</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>16</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="H3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>103</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2">
+        <v>97</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>26</v>
+      </c>
+      <c r="G6" s="2">
+        <v>106</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>106</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>42</v>
+      </c>
+      <c r="D7" s="2">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2">
+        <v>102</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>109</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>110</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>105</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>111</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
+        <v>89</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>112</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>113</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D4" s="1">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>104</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>105</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>106</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1">
-        <v>58</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>107</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>36</v>
-      </c>
-      <c r="D8" s="1">
-        <v>76</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>108</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1">
-        <v>102</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>109</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1">
-        <v>100</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>110</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1">
-        <v>105</v>
-      </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>111</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1">
-        <v>89</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>112</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5</v>
-      </c>
-      <c r="D13" s="1">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>113</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1">
-        <v>64</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -805,8 +925,17 @@
       <c r="D15" s="1">
         <v>15</v>
       </c>
+      <c r="E15" s="1">
+        <v>6</v>
+      </c>
+      <c r="F15" s="1">
+        <v>95</v>
+      </c>
+      <c r="G15" s="1">
+        <v>51</v>
+      </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -822,8 +951,17 @@
       <c r="D16" s="1">
         <v>33</v>
       </c>
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
+      <c r="F16" s="1">
+        <v>66</v>
+      </c>
+      <c r="G16" s="1">
+        <v>70</v>
+      </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
@@ -840,7 +978,7 @@
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
@@ -857,7 +995,7 @@
         <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -874,7 +1012,291 @@
         <v>71</v>
       </c>
       <c r="H19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>301</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>302</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2">
+        <v>86</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="3" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>303</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>23</v>
+      </c>
+      <c r="D22" s="2">
+        <v>91</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>304</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>117</v>
+      </c>
+      <c r="D23" s="2">
+        <v>84</v>
+      </c>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>38</v>
+      </c>
+      <c r="G23" s="2">
+        <v>16</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>305</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>57</v>
+      </c>
+      <c r="D24" s="2">
+        <v>120</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2">
+        <v>87</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>306</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2">
+        <v>138</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6</v>
+      </c>
+      <c r="F25" s="2">
+        <v>52</v>
+      </c>
+      <c r="G25" s="2">
+        <v>10</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>307</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2">
+        <v>143</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2">
+        <v>38</v>
+      </c>
+      <c r="G26" s="2">
+        <v>14</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>401</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>402</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>403</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1">
+        <v>59</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>501</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5</v>
+      </c>
+      <c r="D30" s="2">
+        <v>71</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6</v>
+      </c>
+      <c r="F30" s="2">
+        <v>120</v>
+      </c>
+      <c r="G30" s="2">
+        <v>14</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>502</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2">
+        <v>101</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6</v>
+      </c>
+      <c r="F31" s="2">
+        <v>140</v>
+      </c>
+      <c r="G31" s="2">
+        <v>44</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>601</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>16</v>
+      </c>
+      <c r="D32" s="1">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/mapJumpConfig.xlsx
+++ b/tbl打包工具/excel/mapJumpConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="210" windowWidth="19200" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>id_str</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,22 @@
   </si>
   <si>
     <t>南阳郡-颍川郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安定郡-西河郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延津-官渡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏郡-白马津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安平国-平原郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -641,9 +657,15 @@
       <c r="D2" s="2">
         <v>35</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="2">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2">
+        <v>85</v>
+      </c>
+      <c r="G2" s="2">
+        <v>130</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
@@ -661,9 +683,15 @@
       <c r="D3" s="2">
         <v>16</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>91</v>
+      </c>
+      <c r="G3" s="2">
+        <v>110</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>42</v>
       </c>
@@ -681,9 +709,15 @@
       <c r="D4" s="2">
         <v>17</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="2">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>98</v>
+      </c>
+      <c r="G4" s="2">
+        <v>118</v>
+      </c>
       <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
@@ -805,9 +839,15 @@
       <c r="D9" s="2">
         <v>102</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2">
+        <v>27</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>25</v>
       </c>
@@ -825,9 +865,15 @@
       <c r="D10" s="2">
         <v>100</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="E10" s="2">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2">
+        <v>25</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>26</v>
       </c>
@@ -845,9 +891,15 @@
       <c r="D11" s="2">
         <v>105</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2">
+        <v>59</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
@@ -865,9 +917,15 @@
       <c r="D12" s="2">
         <v>89</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>82</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>28</v>
       </c>
@@ -885,9 +943,15 @@
       <c r="D13" s="2">
         <v>75</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="E13" s="2">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>66</v>
+      </c>
+      <c r="G13" s="2">
+        <v>29</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>29</v>
       </c>
@@ -905,9 +969,15 @@
       <c r="D14" s="2">
         <v>64</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="E14" s="2">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2">
+        <v>74</v>
+      </c>
+      <c r="G14" s="2">
+        <v>18</v>
+      </c>
       <c r="H14" s="3" t="s">
         <v>30</v>
       </c>
@@ -977,6 +1047,15 @@
       <c r="D17" s="1">
         <v>37</v>
       </c>
+      <c r="E17" s="1">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1">
+        <v>82</v>
+      </c>
+      <c r="G17" s="1">
+        <v>50</v>
+      </c>
       <c r="H17" t="s">
         <v>33</v>
       </c>
@@ -994,6 +1073,15 @@
       <c r="D18" s="1">
         <v>52</v>
       </c>
+      <c r="E18" s="1">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1">
+        <v>69</v>
+      </c>
+      <c r="G18" s="1">
+        <v>64</v>
+      </c>
       <c r="H18" t="s">
         <v>34</v>
       </c>
@@ -1011,6 +1099,15 @@
       <c r="D19" s="1">
         <v>71</v>
       </c>
+      <c r="E19" s="1">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1">
+        <v>76</v>
+      </c>
+      <c r="G19" s="1">
+        <v>82</v>
+      </c>
       <c r="H19" t="s">
         <v>35</v>
       </c>
@@ -1028,9 +1125,15 @@
       <c r="D20" s="2">
         <v>74</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="E20" s="2">
+        <v>7</v>
+      </c>
+      <c r="F20" s="2">
+        <v>111</v>
+      </c>
+      <c r="G20" s="2">
+        <v>94</v>
+      </c>
       <c r="H20" s="3" t="s">
         <v>36</v>
       </c>
@@ -1048,9 +1151,15 @@
       <c r="D21" s="2">
         <v>86</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="E21" s="2">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2">
+        <v>105</v>
+      </c>
+      <c r="G21" s="2">
+        <v>107</v>
+      </c>
       <c r="H21" s="3" t="s">
         <v>37</v>
       </c>
@@ -1068,9 +1177,15 @@
       <c r="D22" s="2">
         <v>91</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="E22" s="2">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2">
+        <v>101</v>
+      </c>
+      <c r="G22" s="2">
+        <v>116</v>
+      </c>
       <c r="H22" s="3" t="s">
         <v>38</v>
       </c>
@@ -1192,6 +1307,15 @@
       <c r="D27" s="1">
         <v>13</v>
       </c>
+      <c r="E27" s="1">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1">
+        <v>45</v>
+      </c>
       <c r="H27" t="s">
         <v>45</v>
       </c>
@@ -1209,6 +1333,15 @@
       <c r="D28" s="1">
         <v>40</v>
       </c>
+      <c r="E28" s="1">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1">
+        <v>31</v>
+      </c>
+      <c r="G28" s="1">
+        <v>71</v>
+      </c>
       <c r="H28" t="s">
         <v>46</v>
       </c>
@@ -1226,6 +1359,15 @@
       <c r="D29" s="1">
         <v>59</v>
       </c>
+      <c r="E29" s="1">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1">
+        <v>26</v>
+      </c>
+      <c r="G29" s="1">
+        <v>89</v>
+      </c>
       <c r="H29" t="s">
         <v>47</v>
       </c>
@@ -1295,8 +1437,121 @@
       <c r="D32" s="1">
         <v>45</v>
       </c>
+      <c r="E32" s="1">
+        <v>9</v>
+      </c>
+      <c r="F32" s="1">
+        <v>57</v>
+      </c>
+      <c r="G32" s="1">
+        <v>20</v>
+      </c>
       <c r="H32" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>701</v>
+      </c>
+      <c r="B33" s="2">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2">
+        <v>38</v>
+      </c>
+      <c r="D33" s="2">
+        <v>136</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8</v>
+      </c>
+      <c r="F33" s="2">
+        <v>43</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>801</v>
+      </c>
+      <c r="B34" s="1">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1">
+        <v>86</v>
+      </c>
+      <c r="D34" s="1">
+        <v>58</v>
+      </c>
+      <c r="E34" s="1">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1">
+        <v>38</v>
+      </c>
+      <c r="G34" s="1">
+        <v>29</v>
+      </c>
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>802</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1">
+        <v>81</v>
+      </c>
+      <c r="D35" s="1">
+        <v>63</v>
+      </c>
+      <c r="E35" s="1">
+        <v>9</v>
+      </c>
+      <c r="F35" s="1">
+        <v>32</v>
+      </c>
+      <c r="G35" s="1">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>803</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>56</v>
+      </c>
+      <c r="D36" s="1">
+        <v>81</v>
+      </c>
+      <c r="E36" s="1">
+        <v>9</v>
+      </c>
+      <c r="F36" s="1">
+        <v>8</v>
+      </c>
+      <c r="G36" s="1">
+        <v>52</v>
+      </c>
+      <c r="H36" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/mapJumpConfig.xlsx
+++ b/tbl打包工具/excel/mapJumpConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="19200" windowHeight="11520"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="19200" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2">
         <v>17</v>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D5" s="2">
         <v>21</v>
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2">
         <v>32</v>
@@ -811,7 +811,7 @@
         <v>36</v>
       </c>
       <c r="D8" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E8" s="2">
         <v>6</v>

--- a/tbl打包工具/excel/mapJumpConfig.xlsx
+++ b/tbl打包工具/excel/mapJumpConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="240" windowWidth="19200" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="270" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,14 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牂牁郡-武陵郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扞关-南郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>散关-汉阳郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汉中郡-南郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>代郡-雁门郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +222,18 @@
   </si>
   <si>
     <t>安平国-平原郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉中郡-南阳郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捍关-南郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越西郡-武陵郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +603,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -693,7 +693,7 @@
         <v>110</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -745,7 +745,7 @@
         <v>97</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1198,7 +1198,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="D23" s="2">
         <v>84</v>
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="2">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="D24" s="2">
         <v>120</v>
@@ -1239,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1265,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1279,7 +1279,7 @@
         <v>49</v>
       </c>
       <c r="D26" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E26" s="2">
         <v>6</v>
@@ -1291,7 +1291,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -1317,7 +1317,7 @@
         <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
@@ -1343,7 +1343,7 @@
         <v>71</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
@@ -1369,7 +1369,7 @@
         <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
@@ -1395,7 +1395,7 @@
         <v>14</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
@@ -1421,7 +1421,7 @@
         <v>44</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
@@ -1447,7 +1447,7 @@
         <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -1473,7 +1473,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -1499,7 +1499,7 @@
         <v>29</v>
       </c>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
@@ -1525,7 +1525,7 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -1551,7 +1551,7 @@
         <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/mapJumpConfig.xlsx
+++ b/tbl打包工具/excel/mapJumpConfig.xlsx
@@ -229,11 +229,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>越西郡-武陵郡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>捍关-南郡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>越西郡-武陵郡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +603,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1239,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -1265,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
